--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_BlackTea_1.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_BlackTea_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="150">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,220 +46,439 @@
     <t>茉 莉</t>
   </si>
   <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>李先生，请问这种黑茶的报价是多少？</t>
+  </si>
+  <si>
+    <t>Mr. Li, may I ask what the price of this black tea is?</t>
+  </si>
+  <si>
+    <t>李文俊</t>
+  </si>
+  <si>
+    <t>LiWenJun</t>
+  </si>
+  <si>
+    <t>黑茶是我们今年的试销品。为了打开销路，我们准备按每斤三百八十美元的特价出售。</t>
+  </si>
+  <si>
+    <t>Black tea is our trial product this year. In order to open up sales, we are preparing to sell it at a special price of three hundred and eighty dollars per pound.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>李先生，请问这种黑茶的报价是多少？</t>
-  </si>
-  <si>
-    <t>李文俊</t>
-  </si>
-  <si>
-    <t>黑茶是我们今年的试销品。为了打开销路，我们准备按每斤三百八十美元的特价出售。</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>接受报盘</t>
   </si>
   <si>
+    <t>Accept the offer</t>
+  </si>
+  <si>
     <t>结局</t>
   </si>
   <si>
     <t>选择错误，报价过高</t>
   </si>
   <si>
+    <t>Incorrect choice, the quotation is too high</t>
+  </si>
+  <si>
     <t>回到上一选择节点</t>
   </si>
   <si>
+    <t>Return to the previous choice node</t>
+  </si>
+  <si>
     <t>跳转至正确节点</t>
   </si>
   <si>
+    <t>Jump to the correct node</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
     <t>选择错误，报价过高，此处应选择“不接受报盘”</t>
   </si>
   <si>
+    <t>Wrong selection, the quote is too high; 'Do not accept the offer' should be selected here.</t>
+  </si>
+  <si>
     <t>不接受报盘</t>
   </si>
   <si>
+    <t>Not accepting offers</t>
+  </si>
+  <si>
     <t>李先生，您大概不太清楚国际市场目前的行情。您的这个价格跟一些世界名牌产品的价格几乎差不多了！</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. Li, you may not be very clear about the current situation of the international market. Your price is almost similar to that of some world-renowned brand products! </t>
+  </si>
+  <si>
     <t>茉莉，我相信我们产品的品质和味道不比某些世界名牌产品差。上个月我们和一家日本公司就是按这个价格签订了合同，不过，在没有建立知名度以前，我们愿意适当降低我们的报价。</t>
   </si>
   <si>
+    <t>Molly, I believe the quality and taste of our products are no worse than those of some world-renowned brands. Last month we signed a contract with a Japanese company at this price, but until we establish our reputation, we are willing to appropriately lower our quote.</t>
+  </si>
+  <si>
     <t>三百二十美元一斤</t>
   </si>
   <si>
+    <t>320 US dollars per pound</t>
+  </si>
+  <si>
     <t>约翰逊</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
     <t>如果每斤在三百二十美元，我们可以考虑订购一千斤。</t>
   </si>
   <si>
+    <t>If it's three hundred and twenty dollars per pound, we can consider ordering a thousand pounds.</t>
+  </si>
+  <si>
     <t>三百二十美元一打我们太吃亏了！我们最多降价二十块，三百六十美元一斤，怎么样？</t>
   </si>
   <si>
+    <t>Three hundred and twenty dollars a pound is too much for us! We can only lower the price by twenty dollars, at three hundred and sixty dollars per pound, how about that?</t>
+  </si>
+  <si>
     <t>拒绝报盘</t>
   </si>
   <si>
+    <t>Refuse to quote</t>
+  </si>
+  <si>
     <t>还是太贵了！如果销路不好，我们就要赔本了。我说，咱们双方再各让价二十，三百四十美元一斤，好不好？</t>
   </si>
   <si>
+    <t xml:space="preserve">It's still too expensive! If sales are not good, we will incur losses. I suggest we each lower our prices by twenty, to three hundred and forty dollars per pound, okay? </t>
+  </si>
+  <si>
     <t>对不起，三百六是我们的底价，不能再低了。</t>
   </si>
   <si>
+    <t xml:space="preserve">I'm sorry, three hundred and sixty is our bottom price, we can't go lower. </t>
+  </si>
+  <si>
     <t>真遗憾！看来我们只好另找货源了。</t>
   </si>
   <si>
+    <t>That's really a pity! It seems we'll have to find another source.</t>
+  </si>
+  <si>
     <t>谈判失败</t>
   </si>
   <si>
+    <t>Negotiation failed</t>
+  </si>
+  <si>
     <t>选择错误，谈判失败，此处应选择“接受报盘”</t>
   </si>
   <si>
+    <t>Wrong choice, the negotiation failed. Here you should select 'Accept the offer'.</t>
+  </si>
+  <si>
     <t>如果每斤在三百六十美元，我们可以考虑订购一千斤。</t>
   </si>
   <si>
+    <t xml:space="preserve">If it's 360 dollars per pound, we can consider ordering a thousand pounds. </t>
+  </si>
+  <si>
     <t>这个价格我们可以接受，薄利多销嘛。我们一言为定！</t>
   </si>
   <si>
+    <t>We can accept this price; selling in volume at low margins is fine. It's a deal!</t>
+  </si>
+  <si>
     <t>进入下一步骤</t>
   </si>
   <si>
+    <t>Proceed to the next step</t>
+  </si>
+  <si>
     <t>三百四十美元一斤</t>
   </si>
   <si>
+    <t>340 US dollars per pound</t>
+  </si>
+  <si>
     <t>如果每斤在三百四十美元，我们可以考虑订购一千斤。</t>
   </si>
   <si>
+    <t>If it's three hundred and forty dollars per pound, we can consider ordering a thousand pounds.</t>
+  </si>
+  <si>
     <t>三百四十美元一打我们太吃亏了！我们最多降价二十块，三百六十美元一斤，怎么样？</t>
   </si>
   <si>
+    <t>Three hundred and forty dollars a pound is too much for us! We can only lower the price by twenty dollars, making it three hundred and sixty dollars per pound. How about that?</t>
+  </si>
+  <si>
     <t>还是太贵了！如果销路不好，我们就要赔本了。</t>
   </si>
   <si>
+    <t>It's still too expensive! If sales aren't good, we'll be at a loss.</t>
+  </si>
+  <si>
+    <t>I'm sorry, three hundred and sixty is our bottom price, we can't go any lower.</t>
+  </si>
+  <si>
+    <t>What a pity! It seems we have to find another source.</t>
+  </si>
+  <si>
+    <t>Wrong choice, negotiation failed, here you should choose 'Accept Offer'.</t>
+  </si>
+  <si>
     <t>三百六十美元一斤</t>
   </si>
   <si>
+    <t>360 US dollars per pound</t>
+  </si>
+  <si>
     <t>我想今天我们应该讨论这批订单的交货时间问题。</t>
   </si>
   <si>
+    <t xml:space="preserve">I think today we should discuss the delivery time issue for this batch of orders. </t>
+  </si>
+  <si>
     <t>好。不知道您对交货时间有什么具体要求？</t>
   </si>
   <si>
+    <t xml:space="preserve">Okay. Do you have any specific requirements regarding the delivery time? </t>
+  </si>
+  <si>
     <t>这次我们向贵公司订购的茶叶，都要在今年秋季投放市场。九月、十月是销售旺季。</t>
   </si>
   <si>
+    <t>The tea leaves we ordered from your company must be on the market this autumn. September and October are peak sales months.</t>
+  </si>
+  <si>
     <t>李先生，您能在八月下旬交货吗？</t>
   </si>
   <si>
+    <t>Mr. Li, can you deliver in late August?</t>
+  </si>
+  <si>
     <t>选择错误</t>
   </si>
   <si>
+    <t>Wrong choice</t>
+  </si>
+  <si>
     <t>返回上一节点</t>
   </si>
   <si>
+    <t>Return to the previous node</t>
+  </si>
+  <si>
     <t>选择错误，此处应选择“八月上旬”</t>
   </si>
   <si>
+    <t>Wrong selection, you should choose 'early August' here.</t>
+  </si>
+  <si>
     <t>李先生，您能在八月中旬交货吗？</t>
   </si>
   <si>
+    <t>Mr. Li, can you deliver in mid-August?</t>
+  </si>
+  <si>
     <t>李先生，您能在八月上旬交货吗？</t>
   </si>
   <si>
+    <t>Mr. Li, can you deliver in early August?</t>
+  </si>
+  <si>
     <t>八月上旬？史先生，您不是开玩笑吧？去年我们是九月交货的。我们目前的生产计划已经安排满了。</t>
   </si>
   <si>
+    <t>The beginning of August? Mr. Shi, you're not joking, are you? Last year we delivered in September. Our current production schedule is already fully booked.</t>
+  </si>
+  <si>
     <t>（认真地）不是开玩笑。去年我们的商品比别人晚上市两个星期，结果吃了亏。今年我可不想再错过机会了。</t>
   </si>
   <si>
+    <t>(seriously) I'm not joking. Last year our goods were two weeks late to market compared to others, and we suffered losses because of it. I don't want to miss the opportunity this year.</t>
+  </si>
+  <si>
     <t>可是要我们马上调整生产计划、增加产量确实有困难。</t>
   </si>
   <si>
+    <t>But adjusting the production schedule and increasing output immediately is indeed challenging for us.</t>
+  </si>
+  <si>
     <t>李先生，我知道这个交货时间的确是紧了一些，可是我们也有我们的难处啊。李先生，咱们是老朋友了，请您帮帮忙想想办法吧。</t>
   </si>
   <si>
+    <t>Mr. Li, I understand that the delivery time is indeed tight, but we have our difficulties as well. Mr. Li, we are old friends, please help us think of a solution.</t>
+  </si>
+  <si>
     <t>茉莉，我是想帮您的忙，也想帮自己的忙，可是要提前一个多月交货实在不太容易。</t>
   </si>
   <si>
+    <t>Molly, I want to help you, and I want to help myself too, but delivering more than a month early is really not easy.</t>
+  </si>
+  <si>
     <t>我有一个想法。我们能不能把这些茶叶分成两次交货？八月上旬交一半，九月上旬交另外一半。Johnson，你觉得行吗？</t>
   </si>
   <si>
+    <t>I have an idea. Can we divide the tea delivery into two shipments? Deliver the first half in early August and the second half in early September. Johnson, what do you think?</t>
+  </si>
+  <si>
     <t>嗯，这是一个解决的办法。李先生，您说呢？</t>
   </si>
   <si>
+    <t>Hmm, that's a possible solution. Mr. Li, what do you say?</t>
+  </si>
+  <si>
     <t>让我考虑考虑……我得给王总打个电话。我们先休息一下儿吧？</t>
   </si>
   <si>
+    <t>Let me think about it... I need to call Mr. Wang. Let's take a break first?</t>
+  </si>
+  <si>
     <t>好！</t>
   </si>
   <si>
+    <t>Okay!</t>
+  </si>
+  <si>
     <t>对不起，让你们久等了。刚才我跟王总联系了一下儿。我们可以接受分两次交货的安排……</t>
   </si>
   <si>
+    <t>I'm sorry to keep you waiting. I just spoke with Mr. Wang. We can accept the arrangement of delivering in two batches.</t>
+  </si>
+  <si>
     <t>那太好了！ 谢谢！</t>
   </si>
   <si>
+    <t>That's great! Thank you!</t>
+  </si>
+  <si>
     <t>不过，我必须说明我们对付款方式的要求。</t>
   </si>
   <si>
+    <t>However, I must clarify our requirements regarding the payment method.</t>
+  </si>
+  <si>
     <t>当然，我也很关心这个问题。请问，贵公司打算采用哪种方式？</t>
   </si>
   <si>
+    <t>Of course, I'm concerned about this issue too. May I ask what payment method your company intends to use?</t>
+  </si>
+  <si>
     <t>我们一般采用信用证付款方式。但是这次贵方要求提前交货，这对我们的资金周转有一定影响，所以我们要求贵公司预付百分之三十的货款，其余的货款采用信用证。</t>
   </si>
   <si>
+    <t>We generally use letters of credit for payment. However, since your side requires early delivery this time, it has a certain impact on our cash flow. Therefore, we request that your company pays 30% of the goods in advance, with the remaining payment to be made by letter of credit.</t>
+  </si>
+  <si>
     <t>百分之三十的预付货款，我可以通过美国花旗银行电汇给您。其余的货款，我们是不是可以采用承兑交单或者其他的分期付款方式？</t>
   </si>
   <si>
+    <t>The 30% advance payment, I can wire it to you through Citibank in the United States. For the remaining payment, can we use document against acceptance or other installment payment methods?</t>
+  </si>
+  <si>
     <t>很抱歉，我们目前不接受这些付款方式。为了不影响交货时间，请您务必在装运前三十天开出信用证。</t>
   </si>
   <si>
+    <t>I'm sorry, but we do not accept these payment methods at the moment. To avoid affecting the delivery time, please be sure to issue the letter of credit 30 days before shipment.</t>
+  </si>
+  <si>
     <t>终止谈判</t>
   </si>
   <si>
+    <t>Terminate the negotiations</t>
+  </si>
+  <si>
     <t>李先生，请见谅，我们没办法接受您的要求。</t>
   </si>
   <si>
+    <t>Mr. Li, please forgive us, we cannot accept your request.</t>
+  </si>
+  <si>
     <t>很抱歉，我们目前不接受这些付款方式。</t>
   </si>
   <si>
+    <t>I’m sorry, we are currently not accepting these payment methods.</t>
+  </si>
+  <si>
+    <t>That's a pity! It seems we have to find another source.</t>
+  </si>
+  <si>
     <t>返回上一模块重新选择</t>
   </si>
   <si>
+    <t>Return to the previous module to reselect</t>
+  </si>
+  <si>
     <t>选择错误，谈判失败，此处应选择“妥协”</t>
   </si>
   <si>
+    <t>Wrong choice, the negotiation failed. Here you should choose 'compromise'.</t>
+  </si>
+  <si>
     <t>暂停谈判</t>
   </si>
   <si>
+    <t>Suspend negotiations</t>
+  </si>
+  <si>
     <t>李先生，让我考虑考虑……。我们先休息一下儿吧？</t>
   </si>
   <si>
+    <t>Mr. Li, let me think about it... Shall we take a break first?</t>
+  </si>
+  <si>
     <t>当然，您请便</t>
   </si>
   <si>
+    <t>Of course, please go ahead.</t>
+  </si>
+  <si>
     <t>下一步</t>
   </si>
   <si>
+    <t>Continue</t>
+  </si>
+  <si>
     <t>妥协</t>
   </si>
   <si>
+    <t>Compromise</t>
+  </si>
+  <si>
     <t>李先生，您可真厉害！说到钱，您一点儿情面也不讲！</t>
   </si>
   <si>
+    <t>Mr. Li, you are really impressive! When it comes to money, you don't show any mercy at all!</t>
+  </si>
+  <si>
     <t>（笑）您没听过这样一句中国话吗？“亲兄弟，明算账”嘛！</t>
   </si>
   <si>
+    <t>(laughs) Haven't you heard this Chinese saying? 'When it comes to close brothers, be clear about the accounts!</t>
+  </si>
+  <si>
     <t>（笑）不对！您这是“一手交钱，一手交货”！</t>
   </si>
   <si>
+    <t>(laughs) No, you're doing 'one hand pays, one hand delivers!'</t>
+  </si>
+  <si>
     <t>进入下一模块</t>
+  </si>
+  <si>
+    <t>Enter the next module</t>
   </si>
 </sst>
 </file>
@@ -941,6 +1160,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1229,105 +1455,105 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1338,108 +1564,108 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1450,206 +1676,206 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1660,416 +1886,416 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2080,24 +2306,24 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2108,52 +2334,52 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2164,122 +2390,122 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2290,10 +2516,10 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -2302,16 +2528,16 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2322,136 +2548,136 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2462,24 +2688,24 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2490,24 +2716,24 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
